--- a/data/input_processed/feature_ranking.xlsx
+++ b/data/input_processed/feature_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>sign_fscore_0_1</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Importance</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Corr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.001380049683757711</v>
       </c>
       <c r="D2" t="n">
         <v>0.06321587317960249</v>
@@ -473,6 +483,12 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01383134994059498</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -484,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.001940648060508643</v>
       </c>
       <c r="D3" t="n">
         <v>0.0001198893320314852</v>
@@ -492,6 +508,12 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.007398960763485674</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04257722955738309</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -500,10 +522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002264691604107583</v>
+        <v>0.005292380210623726</v>
       </c>
       <c r="D4" t="n">
         <v>0.05600239253443361</v>
@@ -511,6 +533,12 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.002718658950595199</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01644794219608902</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -519,10 +547,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009235554614710928</v>
+        <v>0.007403679899534943</v>
       </c>
       <c r="D5" t="n">
         <v>0.04227159691735659</v>
@@ -530,6 +558,12 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.003823770071671007</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01910695431188632</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +583,12 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.006882593050976826</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02681052546896415</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -557,10 +597,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02030241155604351</v>
+        <v>0.001897640743480977</v>
       </c>
       <c r="D7" t="n">
         <v>0.1684370287633549</v>
@@ -568,6 +608,12 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02053878563490899</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -579,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007611338855635807</v>
+        <v>0.001930549946814963</v>
       </c>
       <c r="D8" t="n">
         <v>0.07895372081385044</v>
@@ -587,6 +633,12 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.006295443851189075</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04842536841220563</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -595,10 +647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.003804745048366698</v>
       </c>
       <c r="D9" t="n">
         <v>0.812797639837756</v>
@@ -606,6 +658,12 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.0008783974223240953</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.005616763901291515</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006973170993518352</v>
+        <v>0.0007745254288131775</v>
       </c>
       <c r="D10" t="n">
         <v>1.084437354076298e-15</v>
@@ -625,6 +683,12 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.009096351833768335</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1411755843683411</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -636,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03905346789972963</v>
+        <v>0.02409899192492038</v>
       </c>
       <c r="D11" t="n">
         <v>1.032663999575322e-53</v>
@@ -644,6 +708,12 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.02117888364363285</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1742363260381093</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -655,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01139189745736324</v>
+        <v>0.0208632286405841</v>
       </c>
       <c r="D12" t="n">
         <v>4.697489630668639e-96</v>
@@ -663,6 +733,12 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.02194376112635399</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1818395424700728</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -674,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07879841088599804</v>
+        <v>0.08671389587988987</v>
       </c>
       <c r="D13" t="n">
         <v>6.630148455322729e-160</v>
@@ -682,6 +758,12 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.08038111082075483</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2391276857317687</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -693,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01956693609131577</v>
+        <v>0.01931764717902418</v>
       </c>
       <c r="D14" t="n">
         <v>0.9771160894377175</v>
@@ -701,6 +783,12 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.01865112036913308</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02450704808516981</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -712,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03730034599664656</v>
+        <v>0.02622844109069966</v>
       </c>
       <c r="D15" t="n">
         <v>4.836642703531849e-40</v>
@@ -720,6 +808,12 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.02953250286519693</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1034594412402183</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -731,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1436899078345739</v>
+        <v>0.1376315410179743</v>
       </c>
       <c r="D16" t="n">
         <v>1.36484491616527e-23</v>
@@ -739,6 +833,12 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.1423127164861762</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2113077797297869</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -750,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1106464463120966</v>
+        <v>0.1008044422226684</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -758,6 +858,12 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.1131343328765935</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3790392962215394</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -769,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1042028954102294</v>
+        <v>0.1025677777514682</v>
       </c>
       <c r="D18" t="n">
         <v>2.97719901223969e-34</v>
@@ -777,6 +883,12 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.09488847151033997</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2847675549862302</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -788,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04981721172364661</v>
+        <v>0.0482365811443648</v>
       </c>
       <c r="D19" t="n">
         <v>3.357689328207831e-73</v>
@@ -796,6 +908,12 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.04694657525542967</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.232348978833787</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -807,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01251379810181152</v>
       </c>
       <c r="D20" t="n">
         <v>0.01691198051446398</v>
@@ -815,6 +933,12 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01735167246629292</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -823,16 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.009373076071159225</v>
       </c>
       <c r="D21" t="n">
         <v>0.05541023427485348</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00101947429994742</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0160824007311108</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_processed/feature_ranking.xlsx
+++ b/data/input_processed/feature_ranking.xlsx
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001380049683757711</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.06321587317960249</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.002029864779804713</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01383134994059498</v>
+        <v>0.0133071429033178</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001940648060508643</v>
+        <v>0.004413688719968611</v>
       </c>
       <c r="D3" t="n">
         <v>0.0001198893320314852</v>
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007398960763485674</v>
+        <v>0.002327652513330225</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04257722955738309</v>
+        <v>0.03918129158611784</v>
       </c>
     </row>
     <row r="4">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005292380210623726</v>
+        <v>0.01260930282919936</v>
       </c>
       <c r="D4" t="n">
         <v>0.05600239253443361</v>
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002718658950595199</v>
+        <v>0.0006255577541056656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01644794219608902</v>
+        <v>0.01435191183916985</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007403679899534943</v>
+        <v>0.00429194224913676</v>
       </c>
       <c r="D5" t="n">
         <v>0.04227159691735659</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003823770071671007</v>
+        <v>0.003968262853968785</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01910695431188632</v>
+        <v>0.02214901522649033</v>
       </c>
     </row>
     <row r="6">
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.003315668388222726</v>
       </c>
       <c r="D6" t="n">
         <v>0.08296178627487502</v>
@@ -584,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006882593050976826</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02681052546896415</v>
+        <v>0.02442484301979931</v>
       </c>
     </row>
     <row r="7">
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001897640743480977</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.1684370287633549</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02053878563490899</v>
+        <v>0.02153681881266118</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001930549946814963</v>
+        <v>0.008526956560396926</v>
       </c>
       <c r="D8" t="n">
         <v>0.07895372081385044</v>
@@ -634,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006295443851189075</v>
+        <v>0.005722172614334609</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04842536841220563</v>
+        <v>0.04464563579320813</v>
       </c>
     </row>
     <row r="9">
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003804745048366698</v>
+        <v>0.004892522015232714</v>
       </c>
       <c r="D9" t="n">
         <v>0.812797639837756</v>
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008783974223240953</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005616763901291515</v>
+        <v>0.007499101146929649</v>
       </c>
     </row>
     <row r="10">
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007745254288131775</v>
+        <v>0.02520305854929372</v>
       </c>
       <c r="D10" t="n">
         <v>1.084437354076298e-15</v>
@@ -684,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009096351833768335</v>
+        <v>0.006992823371362311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1411755843683411</v>
+        <v>0.1424404056385789</v>
       </c>
     </row>
     <row r="11">
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02409899192492038</v>
+        <v>0.03330606407288972</v>
       </c>
       <c r="D11" t="n">
         <v>1.032663999575322e-53</v>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02117888364363285</v>
+        <v>0.01547134093016012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1742363260381093</v>
+        <v>0.1812509434586499</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0208632286405841</v>
+        <v>0.02761295222902049</v>
       </c>
       <c r="D12" t="n">
         <v>4.697489630668639e-96</v>
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02194376112635399</v>
+        <v>0.02592729257596549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1818395424700728</v>
+        <v>0.1825282876111402</v>
       </c>
     </row>
     <row r="13">
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08671389587988987</v>
+        <v>0.07634282466272868</v>
       </c>
       <c r="D13" t="n">
         <v>6.630148455322729e-160</v>
@@ -759,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08038111082075483</v>
+        <v>0.08747787353708181</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2391276857317687</v>
+        <v>0.2350594340184254</v>
       </c>
     </row>
     <row r="14">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01931764717902418</v>
+        <v>0.02202558955288758</v>
       </c>
       <c r="D14" t="n">
         <v>0.9771160894377175</v>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01865112036913308</v>
+        <v>0.02077659005068755</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02450704808516981</v>
+        <v>0.02801081531189924</v>
       </c>
     </row>
     <row r="15">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02622844109069966</v>
+        <v>0.02944689727404715</v>
       </c>
       <c r="D15" t="n">
         <v>4.836642703531849e-40</v>
@@ -809,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02953250286519693</v>
+        <v>0.03253369475186618</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1034594412402183</v>
+        <v>0.1040122913925539</v>
       </c>
     </row>
     <row r="16">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1376315410179743</v>
+        <v>0.1403260627043146</v>
       </c>
       <c r="D16" t="n">
         <v>1.36484491616527e-23</v>
@@ -834,10 +834,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1423127164861762</v>
+        <v>0.1494195975960824</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2113077797297869</v>
+        <v>0.2093044675793784</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1008044422226684</v>
+        <v>0.106851330129774</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1131343328765935</v>
+        <v>0.1097182063922224</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3790392962215394</v>
+        <v>0.3770752186585689</v>
       </c>
     </row>
     <row r="18">
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1025677777514682</v>
+        <v>0.09984813611576993</v>
       </c>
       <c r="D18" t="n">
         <v>2.97719901223969e-34</v>
@@ -884,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09488847151033997</v>
+        <v>0.0882232245342407</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2847675549862302</v>
+        <v>0.274082238546846</v>
       </c>
     </row>
     <row r="19">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0482365811443648</v>
+        <v>0.05366400878733391</v>
       </c>
       <c r="D19" t="n">
         <v>3.357689328207831e-73</v>
@@ -909,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04694657525542967</v>
+        <v>0.04589882274862855</v>
       </c>
       <c r="G19" t="n">
-        <v>0.232348978833787</v>
+        <v>0.2311323843086752</v>
       </c>
     </row>
     <row r="20">
@@ -925,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01251379810181152</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.01691198051446398</v>
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.002015258457694902</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01735167246629292</v>
+        <v>0.01889064632031402</v>
       </c>
     </row>
     <row r="21">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009373076071159225</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.05541023427485348</v>
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00101947429994742</v>
+        <v>0.00314452640592866</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0160824007311108</v>
+        <v>0.01986282139090926</v>
       </c>
     </row>
   </sheetData>
